--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/10/seed2/result_data_RandomForest.xlsx
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.17629999999999</v>
+        <v>-12.4798</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.78850000000002</v>
+        <v>15.66620000000001</v>
       </c>
     </row>
     <row r="4">
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.5764</v>
+        <v>-12.3987</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.1644</v>
+        <v>-12.3424</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.7057</v>
+        <v>17.20360000000001</v>
       </c>
     </row>
     <row r="25">
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.47310000000001</v>
+        <v>-13.3122</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.811100000000005</v>
+        <v>-8.849300000000005</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.885100000000012</v>
+        <v>-8.912400000000007</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.010600000000004</v>
+        <v>-7.970499999999999</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.496299999999999</v>
+        <v>-7.467999999999997</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.591199999999995</v>
+        <v>-7.710800000000002</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.722799999999999</v>
+        <v>-7.752800000000002</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1335,7 +1335,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.4438</v>
+        <v>-10.55140000000001</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.425899999999997</v>
+        <v>-8.391799999999996</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.860100000000001</v>
+        <v>-7.844799999999999</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.12699999999998</v>
+        <v>-14.1462</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.995199999999994</v>
+        <v>-8.354899999999992</v>
       </c>
       <c r="E57" t="n">
-        <v>16.76750000000001</v>
+        <v>16.68150000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.7702</v>
+        <v>-12.6634</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.46790000000001</v>
+        <v>16.496</v>
       </c>
     </row>
     <row r="62">
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.7627</v>
+        <v>-10.7137</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.16200000000001</v>
+        <v>17.09660000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.655600000000001</v>
+        <v>-7.476699999999998</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-10.93190000000001</v>
+        <v>-10.70530000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.95679999999999</v>
+        <v>-13.9599</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.6675</v>
+        <v>16.68180000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.101900000000003</v>
+        <v>-6.017400000000005</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.1282</v>
+        <v>-8.079300000000003</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.18640000000001</v>
+        <v>-11.31250000000001</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.467</v>
+        <v>15.6135</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.74790000000002</v>
+        <v>16.90520000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.27759999999999</v>
+        <v>16.52179999999998</v>
       </c>
     </row>
   </sheetData>
